--- a/DATA_goal/Junction_Flooding_335.xlsx
+++ b/DATA_goal/Junction_Flooding_335.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45016.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45016.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.88</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.44</v>
+        <v>34.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.43</v>
+        <v>124.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45016.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.28</v>
+        <v>32.78</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45016.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.97</v>
+        <v>39.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.14</v>
+        <v>51.35</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>210.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>2.21</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.55</v>
+        <v>25.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.65</v>
+        <v>46.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_335.xlsx
+++ b/DATA_goal/Junction_Flooding_335.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45016.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>11.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.628</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.598</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.88</v>
+        <v>23.883</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.76</v>
+        <v>18.757</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.696</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.39</v>
+        <v>34.387</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.208</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.779</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.1</v>
+        <v>12.098</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.62</v>
+        <v>7.621</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.478</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>124.3</v>
+        <v>124.301</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.25</v>
+        <v>24.255</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.19</v>
+        <v>8.188000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.65</v>
+        <v>16.654</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.38</v>
+        <v>6.381</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.58</v>
+        <v>7.579</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.99</v>
+        <v>9.986000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.63</v>
+        <v>31.626</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.31</v>
+        <v>4.308</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>45016.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.363</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.25</v>
+        <v>7.251</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.178</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.901</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.96</v>
+        <v>2.962</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>3.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.529</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.78</v>
+        <v>32.781</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.618</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.41</v>
+        <v>2.408</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.795</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.04</v>
+        <v>2.045</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.424</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.01</v>
+        <v>3.015</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.45</v>
+        <v>13.455</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.207</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>3.04</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45016.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_335.xlsx
+++ b/DATA_goal/Junction_Flooding_335.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>45016.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.38</v>
+        <v>13.382</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.68</v>
+        <v>39.679</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.25</v>
+        <v>32.246</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.35</v>
+        <v>51.351</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.753</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.92</v>
+        <v>15.922</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.77</v>
+        <v>16.772</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.587</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.26</v>
+        <v>20.262</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.11</v>
+        <v>12.112</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.12</v>
+        <v>210.116</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.82</v>
+        <v>39.823</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.68</v>
+        <v>26.683</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.01</v>
+        <v>14.007</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.21</v>
+        <v>2.208</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.48</v>
+        <v>25.485</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.35</v>
+        <v>10.346</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.19</v>
+        <v>12.186</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.71</v>
+        <v>16.715</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.45</v>
+        <v>46.452</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.381</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45016.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_335.xlsx
+++ b/DATA_goal/Junction_Flooding_335.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>45016.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.256</v>
+        <v>18.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.382</v>
+        <v>13.38</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.679</v>
+        <v>39.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.246</v>
+        <v>32.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.367</v>
+        <v>14.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.351</v>
+        <v>51.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.106</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.753</v>
+        <v>9.75</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.922</v>
+        <v>15.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.772</v>
+        <v>16.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.587</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.287</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.262</v>
+        <v>20.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.112</v>
+        <v>12.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.116</v>
+        <v>210.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.823</v>
+        <v>39.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.187</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.683</v>
+        <v>26.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.007</v>
+        <v>14.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.208</v>
+        <v>2.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.485</v>
+        <v>25.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.648</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.346</v>
+        <v>10.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.186</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.715</v>
+        <v>16.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.452</v>
+        <v>46.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.381</v>
+        <v>7.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.487</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45016.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.34</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
